--- a/Code/Results/Cases/Case_9_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.66435373539998</v>
+        <v>17.44802777565269</v>
       </c>
       <c r="C2">
-        <v>12.49433022733197</v>
+        <v>12.80083780391574</v>
       </c>
       <c r="D2">
-        <v>7.191247317597751</v>
+        <v>7.258328810897208</v>
       </c>
       <c r="E2">
-        <v>10.17497878689779</v>
+        <v>10.19430697417567</v>
       </c>
       <c r="F2">
-        <v>21.35460741530386</v>
+        <v>21.03256927151568</v>
       </c>
       <c r="G2">
-        <v>23.14247190926285</v>
+        <v>21.92151730971939</v>
       </c>
       <c r="H2">
-        <v>1.576688376181775</v>
+        <v>1.58003129977359</v>
       </c>
       <c r="I2">
-        <v>2.74214644135317</v>
+        <v>2.784623225400602</v>
       </c>
       <c r="J2">
-        <v>8.896776257025223</v>
+        <v>9.293313186527357</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.618162550409089</v>
+        <v>11.39609781754667</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.647210022950866</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.608834677306347</v>
       </c>
       <c r="O2">
-        <v>14.02520995876183</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.44213772087317</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.68816995618832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.06373736122392</v>
+      </c>
+      <c r="R2">
+        <v>12.44993380843933</v>
+      </c>
+      <c r="S2">
+        <v>14.42892368121264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.50911260365629</v>
+        <v>16.34352776567515</v>
       </c>
       <c r="C3">
-        <v>11.84069633438865</v>
+        <v>12.03918522482047</v>
       </c>
       <c r="D3">
-        <v>6.964172459120908</v>
+        <v>7.026596027101449</v>
       </c>
       <c r="E3">
-        <v>9.92358969236445</v>
+        <v>9.949601077609405</v>
       </c>
       <c r="F3">
-        <v>20.89733267210551</v>
+        <v>20.61778480416322</v>
       </c>
       <c r="G3">
-        <v>22.48354047725197</v>
+        <v>21.34105434769376</v>
       </c>
       <c r="H3">
-        <v>1.744250051034992</v>
+        <v>1.73221307122993</v>
       </c>
       <c r="I3">
-        <v>2.604112065692687</v>
+        <v>2.662063427310062</v>
       </c>
       <c r="J3">
-        <v>8.87132757545036</v>
+        <v>9.251475529171719</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.542749625986587</v>
+        <v>11.5567944247233</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.663387460564524</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.539237785937297</v>
       </c>
       <c r="O3">
-        <v>13.30040006312924</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.50872426742411</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.51619581505208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.33490583483692</v>
+      </c>
+      <c r="R3">
+        <v>12.49369909269539</v>
+      </c>
+      <c r="S3">
+        <v>14.28691041309482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.75388171184796</v>
+        <v>15.62140121238269</v>
       </c>
       <c r="C4">
-        <v>11.42330638720981</v>
+        <v>11.55146673160487</v>
       </c>
       <c r="D4">
-        <v>6.822120689137572</v>
+        <v>6.881933499243815</v>
       </c>
       <c r="E4">
-        <v>9.765671332618249</v>
+        <v>9.796180784354359</v>
       </c>
       <c r="F4">
-        <v>20.61878548054573</v>
+        <v>20.36455126169364</v>
       </c>
       <c r="G4">
-        <v>22.07955510565003</v>
+        <v>20.98705290004083</v>
       </c>
       <c r="H4">
-        <v>1.871852449880834</v>
+        <v>1.854375781106143</v>
       </c>
       <c r="I4">
-        <v>2.516877304131702</v>
+        <v>2.584743782420293</v>
       </c>
       <c r="J4">
-        <v>8.858531228313794</v>
+        <v>9.226628195086354</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.495191401296946</v>
+        <v>11.65816295670967</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.69416927886994</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.495366317175022</v>
       </c>
       <c r="O4">
-        <v>12.83529291324038</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.55226701003053</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.41528474417004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.86707416675102</v>
+      </c>
+      <c r="R4">
+        <v>12.52359936911666</v>
+      </c>
+      <c r="S4">
+        <v>14.20335405690025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.42902310337763</v>
+        <v>15.31058579373722</v>
       </c>
       <c r="C5">
-        <v>11.25935307559472</v>
+        <v>11.35819237351344</v>
       </c>
       <c r="D5">
-        <v>6.764857470245696</v>
+        <v>6.82367900756593</v>
       </c>
       <c r="E5">
-        <v>9.700664506202054</v>
+        <v>9.73311552489238</v>
       </c>
       <c r="F5">
-        <v>20.49985673215373</v>
+        <v>20.25576523029297</v>
       </c>
       <c r="G5">
-        <v>21.90378769223298</v>
+        <v>20.83193572006224</v>
       </c>
       <c r="H5">
-        <v>1.925239905349456</v>
+        <v>1.905498938515298</v>
       </c>
       <c r="I5">
-        <v>2.48139689434318</v>
+        <v>2.5536745827359</v>
       </c>
       <c r="J5">
-        <v>8.852164956599808</v>
+        <v>9.214889107900605</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.475247728642689</v>
+        <v>11.69599826391518</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.70953937302932</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.476959615836848</v>
       </c>
       <c r="O5">
-        <v>12.64145642037335</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.57147160557296</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.37063629521927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.67206198877028</v>
+      </c>
+      <c r="R5">
+        <v>12.53740121751111</v>
+      </c>
+      <c r="S5">
+        <v>14.16555845138294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.36763740553324</v>
+        <v>15.25162559156312</v>
       </c>
       <c r="C6">
-        <v>11.24422432892964</v>
+        <v>11.33853574210537</v>
       </c>
       <c r="D6">
-        <v>6.756805487093354</v>
+        <v>6.81546987889264</v>
       </c>
       <c r="E6">
-        <v>9.690060957865651</v>
+        <v>9.722850307247963</v>
       </c>
       <c r="F6">
-        <v>20.47269299043889</v>
+        <v>20.23033240959726</v>
       </c>
       <c r="G6">
-        <v>21.86055329494633</v>
+        <v>20.79202088769798</v>
       </c>
       <c r="H6">
-        <v>1.93442011891069</v>
+        <v>1.914290859858459</v>
       </c>
       <c r="I6">
-        <v>2.477564053880884</v>
+        <v>2.549923618317479</v>
       </c>
       <c r="J6">
-        <v>8.848886582829337</v>
+        <v>9.210720890284229</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.471612302921234</v>
+        <v>11.69725302813666</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.70952685009087</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.473588193661755</v>
       </c>
       <c r="O6">
-        <v>12.60969445427949</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.5756914180965</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.35753060237126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.64009662283147</v>
+      </c>
+      <c r="R6">
+        <v>12.54081017769379</v>
+      </c>
+      <c r="S6">
+        <v>14.1536400150246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.73157390596994</v>
+        <v>15.59380797003217</v>
       </c>
       <c r="C7">
-        <v>11.4541921105918</v>
+        <v>11.57598873117043</v>
       </c>
       <c r="D7">
-        <v>6.825378130643976</v>
+        <v>6.888182697079283</v>
       </c>
       <c r="E7">
-        <v>9.765459402545694</v>
+        <v>9.797173539010624</v>
       </c>
       <c r="F7">
-        <v>20.5969586965993</v>
+        <v>20.33059460551463</v>
       </c>
       <c r="G7">
-        <v>22.03910233910873</v>
+        <v>21.03719969895651</v>
       </c>
       <c r="H7">
-        <v>1.873219639834544</v>
+        <v>1.856197342626952</v>
       </c>
       <c r="I7">
-        <v>2.518938210677518</v>
+        <v>2.587311508285731</v>
       </c>
       <c r="J7">
-        <v>8.852276288337869</v>
+        <v>9.181527139119705</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.494102006747308</v>
+        <v>11.64063915450673</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.683271342822957</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.494042840193644</v>
       </c>
       <c r="O7">
-        <v>12.83460654464994</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.55530319469168</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.39900482038899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.86380724161894</v>
+      </c>
+      <c r="R7">
+        <v>12.52796007994236</v>
+      </c>
+      <c r="S7">
+        <v>14.17762398497275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.25358591605343</v>
+        <v>17.03726864266918</v>
       </c>
       <c r="C8">
-        <v>12.31356098814462</v>
+        <v>12.56305150995685</v>
       </c>
       <c r="D8">
-        <v>7.118671187996117</v>
+        <v>7.193771471466611</v>
       </c>
       <c r="E8">
-        <v>10.08995717300995</v>
+        <v>10.11538591052346</v>
       </c>
       <c r="F8">
-        <v>21.17054318936594</v>
+        <v>20.82330391815742</v>
       </c>
       <c r="G8">
-        <v>22.86665247874292</v>
+        <v>21.96436727160845</v>
       </c>
       <c r="H8">
-        <v>1.612923506024762</v>
+        <v>1.608103948768638</v>
       </c>
       <c r="I8">
-        <v>2.697799314119865</v>
+        <v>2.745186072970588</v>
       </c>
       <c r="J8">
-        <v>8.879319152714213</v>
+        <v>9.144037127597304</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.591381839559149</v>
+        <v>11.42113371034082</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.624405872417643</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.583229239772245</v>
       </c>
       <c r="O8">
-        <v>13.78189240558524</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.46853001132096</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.60751637876063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.81109490557446</v>
+      </c>
+      <c r="R8">
+        <v>12.47295168062445</v>
+      </c>
+      <c r="S8">
+        <v>14.32726674855782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.90438556762078</v>
+        <v>19.56947167126175</v>
       </c>
       <c r="C9">
-        <v>13.81361288367381</v>
+        <v>14.30565419158525</v>
       </c>
       <c r="D9">
-        <v>7.663451093713687</v>
+        <v>7.753181565640359</v>
       </c>
       <c r="E9">
-        <v>10.6949241885837</v>
+        <v>10.70674785705855</v>
       </c>
       <c r="F9">
-        <v>22.34259238559464</v>
+        <v>21.87732369861493</v>
       </c>
       <c r="G9">
-        <v>24.55019815874025</v>
+        <v>23.52269653315784</v>
       </c>
       <c r="H9">
-        <v>1.973095757127077</v>
+        <v>1.957328050449354</v>
       </c>
       <c r="I9">
-        <v>3.026180806335535</v>
+        <v>3.035907267603285</v>
       </c>
       <c r="J9">
-        <v>8.966279997513036</v>
+        <v>9.227133787708446</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.773518277712733</v>
+        <v>11.04961832026797</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.704625497250768</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.7513793838467</v>
       </c>
       <c r="O9">
-        <v>15.4715445995018</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.31457019133109</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.08053069004982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.5080696485405</v>
+      </c>
+      <c r="R9">
+        <v>12.37957305305268</v>
+      </c>
+      <c r="S9">
+        <v>14.71243273470751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.60765862415904</v>
+        <v>21.17330628854419</v>
       </c>
       <c r="C10">
-        <v>14.82720742710434</v>
+        <v>15.43802219415525</v>
       </c>
       <c r="D10">
-        <v>7.974987088826907</v>
+        <v>8.089894942997935</v>
       </c>
       <c r="E10">
-        <v>10.9651242364341</v>
+        <v>10.97421847165396</v>
       </c>
       <c r="F10">
-        <v>23.05465207279122</v>
+        <v>22.44277230480667</v>
       </c>
       <c r="G10">
-        <v>25.60022191359661</v>
+        <v>24.96223801602947</v>
       </c>
       <c r="H10">
-        <v>2.282302093078851</v>
+        <v>2.250273891650076</v>
       </c>
       <c r="I10">
-        <v>3.253725672757965</v>
+        <v>3.236436505769776</v>
       </c>
       <c r="J10">
-        <v>9.01472432944019</v>
+        <v>9.054941550723287</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.84427727374224</v>
+        <v>10.74286591881861</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.801558014823848</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.811787174365187</v>
       </c>
       <c r="O10">
-        <v>16.4913258224294</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.23196321371637</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.37428733268288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.51961897434154</v>
+      </c>
+      <c r="R10">
+        <v>12.35277729942307</v>
+      </c>
+      <c r="S10">
+        <v>14.89002237080785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.1543422213914</v>
+        <v>21.66828553769126</v>
       </c>
       <c r="C11">
-        <v>15.15058753225631</v>
+        <v>15.69162701655259</v>
       </c>
       <c r="D11">
-        <v>7.495586833878437</v>
+        <v>7.63314783784047</v>
       </c>
       <c r="E11">
-        <v>9.843772144616391</v>
+        <v>9.849300894392465</v>
       </c>
       <c r="F11">
-        <v>22.13155668428722</v>
+        <v>21.4003994787053</v>
       </c>
       <c r="G11">
-        <v>24.66994831073417</v>
+        <v>25.0683743861217</v>
       </c>
       <c r="H11">
-        <v>3.079956896409999</v>
+        <v>3.050305118932768</v>
       </c>
       <c r="I11">
-        <v>3.327402225842242</v>
+        <v>3.300180011360033</v>
       </c>
       <c r="J11">
-        <v>8.792847351108044</v>
+        <v>8.448793606974856</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.46362491608495</v>
+        <v>10.37731797731036</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.519212874823032</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.429190779871457</v>
       </c>
       <c r="O11">
-        <v>15.93783485645269</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.34189822270396</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.89793372418194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.93959365332549</v>
+      </c>
+      <c r="R11">
+        <v>12.50911166682006</v>
+      </c>
+      <c r="S11">
+        <v>14.31717619484827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.29122256864548</v>
+        <v>21.79688752312279</v>
       </c>
       <c r="C12">
-        <v>15.17431917427513</v>
+        <v>15.65047181860965</v>
       </c>
       <c r="D12">
-        <v>7.024452751829659</v>
+        <v>7.16418379748425</v>
       </c>
       <c r="E12">
-        <v>8.979841055840367</v>
+        <v>8.973199560369457</v>
       </c>
       <c r="F12">
-        <v>21.21389814494066</v>
+        <v>20.4556091081017</v>
       </c>
       <c r="G12">
-        <v>23.69361869233201</v>
+        <v>24.60270992687586</v>
       </c>
       <c r="H12">
-        <v>4.284415527719841</v>
+        <v>4.262240442332583</v>
       </c>
       <c r="I12">
-        <v>3.340636410438359</v>
+        <v>3.310011336018009</v>
       </c>
       <c r="J12">
-        <v>8.599975055508418</v>
+        <v>8.130082075261733</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.245329241801461</v>
+        <v>10.16981475265609</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.284820382049792</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.212431749318701</v>
       </c>
       <c r="O12">
-        <v>15.24600990170135</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.45780212497196</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.44580518178752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.23452463841991</v>
+      </c>
+      <c r="R12">
+        <v>12.64601198235378</v>
+      </c>
+      <c r="S12">
+        <v>13.8430460975638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.10551324309027</v>
+        <v>21.64669012588289</v>
       </c>
       <c r="C13">
-        <v>15.01064524273933</v>
+        <v>15.43469174309456</v>
       </c>
       <c r="D13">
-        <v>6.531310311634503</v>
+        <v>6.652132853248058</v>
       </c>
       <c r="E13">
-        <v>8.298890865935263</v>
+        <v>8.274484357684187</v>
       </c>
       <c r="F13">
-        <v>20.2034958763788</v>
+        <v>19.51432885857434</v>
       </c>
       <c r="G13">
-        <v>22.54842393700891</v>
+        <v>23.39139713182815</v>
       </c>
       <c r="H13">
-        <v>5.577124447009035</v>
+        <v>5.561619079139801</v>
       </c>
       <c r="I13">
-        <v>3.311840658201011</v>
+        <v>3.284904106747961</v>
       </c>
       <c r="J13">
-        <v>8.407690650907742</v>
+        <v>8.038753410332406</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.146126843074063</v>
+        <v>10.04929424686754</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.067451105918629</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.117955843564158</v>
       </c>
       <c r="O13">
-        <v>14.38891047752457</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.58572942414331</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.95719282151415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.37827847937868</v>
+      </c>
+      <c r="R13">
+        <v>12.7698410864163</v>
+      </c>
+      <c r="S13">
+        <v>13.41065765574837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.82293036834148</v>
+        <v>21.40891207132093</v>
       </c>
       <c r="C14">
-        <v>14.81734765381185</v>
+        <v>15.20949369059325</v>
       </c>
       <c r="D14">
-        <v>6.178231617084195</v>
+        <v>6.277357420533078</v>
       </c>
       <c r="E14">
-        <v>7.957443244723493</v>
+        <v>7.921516061429447</v>
       </c>
       <c r="F14">
-        <v>19.44594998923559</v>
+        <v>18.84640499615173</v>
       </c>
       <c r="G14">
-        <v>21.65173104936169</v>
+        <v>22.19603601042476</v>
       </c>
       <c r="H14">
-        <v>6.511700026775165</v>
+        <v>6.500081265088804</v>
       </c>
       <c r="I14">
-        <v>3.273688938499989</v>
+        <v>3.252830211404187</v>
       </c>
       <c r="J14">
-        <v>8.272238785656427</v>
+        <v>8.06153897468289</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.149727046980471</v>
+        <v>9.997557436750899</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.923219340286463</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.126179929250982</v>
       </c>
       <c r="O14">
-        <v>13.7035001257654</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.68165805883024</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.59407374902485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.69947595935118</v>
+      </c>
+      <c r="R14">
+        <v>12.85086913092666</v>
+      </c>
+      <c r="S14">
+        <v>13.12004282353284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.67837813119682</v>
+        <v>21.284063935882</v>
       </c>
       <c r="C15">
-        <v>14.74009114263432</v>
+        <v>15.12620901740339</v>
       </c>
       <c r="D15">
-        <v>6.088034838749422</v>
+        <v>6.178681529066889</v>
       </c>
       <c r="E15">
-        <v>7.894242887972992</v>
+        <v>7.856615980713134</v>
       </c>
       <c r="F15">
-        <v>19.23701413035723</v>
+        <v>18.67667347327428</v>
       </c>
       <c r="G15">
-        <v>21.3858010722299</v>
+        <v>21.75034915069704</v>
       </c>
       <c r="H15">
-        <v>6.724659303424467</v>
+        <v>6.714174642996731</v>
       </c>
       <c r="I15">
-        <v>3.256367785640101</v>
+        <v>3.238982702172421</v>
       </c>
       <c r="J15">
-        <v>8.238074092298824</v>
+        <v>8.103837979484714</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.158918152813218</v>
+        <v>9.997065438367642</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.888894159059185</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.137057236234431</v>
       </c>
       <c r="O15">
-        <v>13.50081350958439</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.70753158464847</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.49406024192439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.50094781786339</v>
+      </c>
+      <c r="R15">
+        <v>12.8680967930956</v>
+      </c>
+      <c r="S15">
+        <v>13.05172187675577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.99984999604041</v>
+        <v>20.68062995037065</v>
       </c>
       <c r="C16">
-        <v>14.36320252764318</v>
+        <v>14.75755391128634</v>
       </c>
       <c r="D16">
-        <v>6.041280621513285</v>
+        <v>6.105770721191873</v>
       </c>
       <c r="E16">
-        <v>7.899743210161328</v>
+        <v>7.869766672635222</v>
       </c>
       <c r="F16">
-        <v>19.09698887604617</v>
+        <v>18.68048089714122</v>
       </c>
       <c r="G16">
-        <v>21.0938114502411</v>
+        <v>20.58670276123265</v>
       </c>
       <c r="H16">
-        <v>6.457909087811776</v>
+        <v>6.450550426477304</v>
       </c>
       <c r="I16">
-        <v>3.167277178855213</v>
+        <v>3.1645201908678</v>
       </c>
       <c r="J16">
-        <v>8.251084387086523</v>
+        <v>8.444948008040779</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.142138959845412</v>
+        <v>10.13669884266105</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.930169332109087</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.12535443744552</v>
       </c>
       <c r="O16">
-        <v>13.194848717296</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.70647977025204</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.44751888660524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.21601048202647</v>
+      </c>
+      <c r="R16">
+        <v>12.82421923617282</v>
+      </c>
+      <c r="S16">
+        <v>13.12087220703424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.62456038166596</v>
+        <v>20.33210814284045</v>
       </c>
       <c r="C17">
-        <v>14.17727124462389</v>
+        <v>14.58703013460165</v>
       </c>
       <c r="D17">
-        <v>6.195074944184022</v>
+        <v>6.253263700253446</v>
       </c>
       <c r="E17">
-        <v>8.061080596560979</v>
+        <v>8.039210969606856</v>
       </c>
       <c r="F17">
-        <v>19.39965250769595</v>
+        <v>19.03065385361113</v>
       </c>
       <c r="G17">
-        <v>21.36135585347633</v>
+        <v>20.47049430358653</v>
       </c>
       <c r="H17">
-        <v>5.70842626586046</v>
+        <v>5.701938064008449</v>
       </c>
       <c r="I17">
-        <v>3.119217072614214</v>
+        <v>3.124029176260743</v>
       </c>
       <c r="J17">
-        <v>8.333436232625514</v>
+        <v>8.665162817135851</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.1161509472966</v>
+        <v>10.27614644428783</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.030023696680529</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.100673487018717</v>
       </c>
       <c r="O17">
-        <v>13.33822267664429</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.65650737461692</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.60759054708724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.36907582648582</v>
+      </c>
+      <c r="R17">
+        <v>12.75397302809185</v>
+      </c>
+      <c r="S17">
+        <v>13.31881726367538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.49098750216341</v>
+        <v>20.19510912043881</v>
       </c>
       <c r="C18">
-        <v>14.11609845244874</v>
+        <v>14.56107386494974</v>
       </c>
       <c r="D18">
-        <v>6.545358079538429</v>
+        <v>6.607569886463168</v>
       </c>
       <c r="E18">
-        <v>8.503969733494001</v>
+        <v>8.490305459194557</v>
       </c>
       <c r="F18">
-        <v>20.12901567853601</v>
+        <v>19.75487797432184</v>
       </c>
       <c r="G18">
-        <v>22.16161231937021</v>
+        <v>21.08220968414789</v>
       </c>
       <c r="H18">
-        <v>4.494634934212939</v>
+        <v>4.487078230950085</v>
       </c>
       <c r="I18">
-        <v>3.099083498101571</v>
+        <v>3.105571925115852</v>
       </c>
       <c r="J18">
-        <v>8.487906449151113</v>
+        <v>8.866276113874536</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.146654755973523</v>
+        <v>10.44744927956867</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.203008988233297</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.129692074535162</v>
       </c>
       <c r="O18">
-        <v>13.8852100672362</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.55900676012441</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.97168007383134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.92152852205767</v>
+      </c>
+      <c r="R18">
+        <v>12.64756472876933</v>
+      </c>
+      <c r="S18">
+        <v>13.67863264439881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.53779109227939</v>
+        <v>20.21880049118196</v>
       </c>
       <c r="C19">
-        <v>14.21319429849737</v>
+        <v>14.71222237684069</v>
       </c>
       <c r="D19">
-        <v>7.043108591987153</v>
+        <v>7.115161620118451</v>
       </c>
       <c r="E19">
-        <v>9.298116557239522</v>
+        <v>9.292441811569313</v>
       </c>
       <c r="F19">
-        <v>21.11127253953178</v>
+        <v>20.70066108393325</v>
       </c>
       <c r="G19">
-        <v>23.25626621385569</v>
+        <v>22.08351819709282</v>
       </c>
       <c r="H19">
-        <v>3.143959603244377</v>
+        <v>3.132272463463476</v>
       </c>
       <c r="I19">
-        <v>3.11205158456655</v>
+        <v>3.117851694223135</v>
       </c>
       <c r="J19">
-        <v>8.678237071062117</v>
+        <v>9.05393955811277</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.315680296009283</v>
+        <v>10.62152683140455</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.407029276677231</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.295249684766878</v>
       </c>
       <c r="O19">
-        <v>14.70843477932541</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.44476552037273</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.44436769605751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.74818728991074</v>
+      </c>
+      <c r="R19">
+        <v>12.53155910824343</v>
+      </c>
+      <c r="S19">
+        <v>14.12221572161599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.13076066795623</v>
+        <v>20.73790832037551</v>
       </c>
       <c r="C20">
-        <v>14.64999962375756</v>
+        <v>15.25201789931814</v>
       </c>
       <c r="D20">
-        <v>7.901809752496455</v>
+        <v>8.00061593796798</v>
       </c>
       <c r="E20">
-        <v>10.89019930857939</v>
+        <v>10.89597105841484</v>
       </c>
       <c r="F20">
-        <v>22.80475582584803</v>
+        <v>22.27262304126588</v>
       </c>
       <c r="G20">
-        <v>25.21468062729099</v>
+        <v>24.18736797761944</v>
       </c>
       <c r="H20">
-        <v>2.198933934649095</v>
+        <v>2.172613715430579</v>
       </c>
       <c r="I20">
-        <v>3.203162365705547</v>
+        <v>3.197583923413385</v>
       </c>
       <c r="J20">
-        <v>8.981269959077631</v>
+        <v>9.211365943327584</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.821237201190349</v>
+        <v>10.80289472113226</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.74538930822493</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.79223336308518</v>
       </c>
       <c r="O20">
-        <v>16.22936791193301</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.26426262919553</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.24710886249228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.26722832935055</v>
+      </c>
+      <c r="R20">
+        <v>12.36595440247689</v>
+      </c>
+      <c r="S20">
+        <v>14.82758635283388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.41063381535774</v>
+        <v>21.85957492249046</v>
       </c>
       <c r="C21">
-        <v>15.40804474228546</v>
+        <v>16.00534383222034</v>
       </c>
       <c r="D21">
-        <v>8.245234317088666</v>
+        <v>8.415620954258443</v>
       </c>
       <c r="E21">
-        <v>11.32921628043374</v>
+        <v>11.35708111291559</v>
       </c>
       <c r="F21">
-        <v>23.58193539826486</v>
+        <v>22.7175509926673</v>
       </c>
       <c r="G21">
-        <v>26.28243901203322</v>
+        <v>27.03600075094507</v>
       </c>
       <c r="H21">
-        <v>2.447921392831658</v>
+        <v>2.40178587261867</v>
       </c>
       <c r="I21">
-        <v>3.378524234446317</v>
+        <v>3.344727658555962</v>
       </c>
       <c r="J21">
-        <v>9.069725141793548</v>
+        <v>8.482664055711719</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.961877852423176</v>
+        <v>10.56074373395765</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.820409697700888</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.920893480059877</v>
       </c>
       <c r="O21">
-        <v>17.1564219895056</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.18135360237695</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.59531974694392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.15010820573561</v>
+      </c>
+      <c r="R21">
+        <v>12.35585155158908</v>
+      </c>
+      <c r="S21">
+        <v>14.90509300207906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.21462450431124</v>
+        <v>22.56103223331561</v>
       </c>
       <c r="C22">
-        <v>15.8459383816562</v>
+        <v>16.42892320061291</v>
       </c>
       <c r="D22">
-        <v>8.423926883249054</v>
+        <v>8.643710136720921</v>
       </c>
       <c r="E22">
-        <v>11.53182125057925</v>
+        <v>11.57629603849743</v>
       </c>
       <c r="F22">
-        <v>24.03823310837775</v>
+        <v>22.94584903524595</v>
       </c>
       <c r="G22">
-        <v>26.9347618020766</v>
+        <v>28.94601448245916</v>
       </c>
       <c r="H22">
-        <v>2.601528897623155</v>
+        <v>2.54285857340606</v>
       </c>
       <c r="I22">
-        <v>3.485987569016857</v>
+        <v>3.433033252637511</v>
       </c>
       <c r="J22">
-        <v>9.12407438563219</v>
+        <v>8.015008689301215</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.024540974029983</v>
+        <v>10.40305958949494</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.875462666925472</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.976264158769213</v>
       </c>
       <c r="O22">
-        <v>17.68026435880941</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.13256622770243</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.80992201435472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.6429742511372</v>
+      </c>
+      <c r="R22">
+        <v>12.35876516611569</v>
+      </c>
+      <c r="S22">
+        <v>14.9310745223015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.80440465581968</v>
+        <v>22.21584774158189</v>
       </c>
       <c r="C23">
-        <v>15.58350410855611</v>
+        <v>16.18755848616019</v>
       </c>
       <c r="D23">
-        <v>8.324933150533475</v>
+        <v>8.511315917777125</v>
       </c>
       <c r="E23">
-        <v>11.42328988313468</v>
+        <v>11.45556838825581</v>
       </c>
       <c r="F23">
-        <v>23.81550624846416</v>
+        <v>22.87362238610665</v>
       </c>
       <c r="G23">
-        <v>26.6245978262785</v>
+        <v>27.75794580455395</v>
       </c>
       <c r="H23">
-        <v>2.520447024665111</v>
+        <v>2.469243502883022</v>
       </c>
       <c r="I23">
-        <v>3.425512167920438</v>
+        <v>3.382242906694251</v>
       </c>
       <c r="J23">
-        <v>9.101725306294362</v>
+        <v>8.342321402773074</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.992006004101543</v>
+        <v>10.50435615732245</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.87222413648287</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.947979995909261</v>
       </c>
       <c r="O23">
-        <v>17.40092018843902</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.1539604231575</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.71187119366982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.38538397563406</v>
+      </c>
+      <c r="R23">
+        <v>12.34752833567108</v>
+      </c>
+      <c r="S23">
+        <v>14.9574416581227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.14946300198291</v>
+        <v>20.75511371654064</v>
       </c>
       <c r="C24">
-        <v>14.60363819313837</v>
+        <v>15.20997893213792</v>
       </c>
       <c r="D24">
-        <v>7.948185693995143</v>
+        <v>8.047463821387026</v>
       </c>
       <c r="E24">
-        <v>11.00483967716898</v>
+        <v>11.01118022705322</v>
       </c>
       <c r="F24">
-        <v>22.93722144954525</v>
+        <v>22.40297429193344</v>
       </c>
       <c r="G24">
-        <v>25.38246588057833</v>
+        <v>24.33461854544521</v>
       </c>
       <c r="H24">
-        <v>2.205497948312673</v>
+        <v>2.179073290256694</v>
       </c>
       <c r="I24">
-        <v>3.197583795714759</v>
+        <v>3.189927491219549</v>
       </c>
       <c r="J24">
-        <v>9.01227511037014</v>
+        <v>9.246366907814826</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.865297598849319</v>
+        <v>10.84249407819283</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.79086169847054</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.836016605422225</v>
       </c>
       <c r="O24">
-        <v>16.30441722059768</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.24774475191209</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.32211698275452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.34290187142977</v>
+      </c>
+      <c r="R24">
+        <v>12.34769361772844</v>
+      </c>
+      <c r="S24">
+        <v>14.90064629791107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.19876207577686</v>
+        <v>18.90134940963926</v>
       </c>
       <c r="C25">
-        <v>13.47420477766329</v>
+        <v>13.91392894316363</v>
       </c>
       <c r="D25">
-        <v>7.525598655224634</v>
+        <v>7.607323023268502</v>
       </c>
       <c r="E25">
-        <v>10.53597190133529</v>
+        <v>10.54958582748739</v>
       </c>
       <c r="F25">
-        <v>21.99086277491483</v>
+        <v>21.57494209515981</v>
       </c>
       <c r="G25">
-        <v>24.03347283332004</v>
+        <v>22.91798169820823</v>
       </c>
       <c r="H25">
-        <v>1.850381700770005</v>
+        <v>1.840701828723641</v>
       </c>
       <c r="I25">
-        <v>2.943787086288067</v>
+        <v>2.965739444806154</v>
       </c>
       <c r="J25">
-        <v>8.929311858112982</v>
+        <v>9.247024535525727</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.723983253537205</v>
+        <v>11.13392772297329</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.649620485352844</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.705885386706756</v>
       </c>
       <c r="O25">
-        <v>15.03568876533967</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.35979615102002</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.92159773021358</v>
+        <v>15.07361843948838</v>
+      </c>
+      <c r="R25">
+        <v>12.40670766784068</v>
+      </c>
+      <c r="S25">
+        <v>14.59189907653206</v>
       </c>
     </row>
   </sheetData>
